--- a/spliced/falling/2023-03-25_18-03-49/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-49/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.829729080200196</v>
+        <v>-1.921436786651612</v>
       </c>
       <c r="D2" t="n">
-        <v>1.47260046005249</v>
+        <v>1.638089656829834</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5425764322280884</v>
+        <v>0.3902863562107086</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3139847218990326</v>
+        <v>-0.1360424668951469</v>
       </c>
       <c r="G2" t="n">
-        <v>0.365755558013916</v>
+        <v>0.3186911859295585</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0809396430850029</v>
+        <v>0.05561650341207323</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.84237813949585</v>
+        <v>-1.84520435333252</v>
       </c>
       <c r="D3" t="n">
-        <v>1.411740303039551</v>
+        <v>1.668948650360107</v>
       </c>
       <c r="E3" t="n">
-        <v>1.237700462341309</v>
+        <v>0.1994338035583496</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09199075129899148</v>
+        <v>-0.2708076590841467</v>
       </c>
       <c r="G3" t="n">
-        <v>0.302864204753529</v>
+        <v>0.3116106986999512</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2070000191981139</v>
+        <v>0.0008329986171288634</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.159674644470215</v>
+        <v>-1.829729080200196</v>
       </c>
       <c r="D4" t="n">
-        <v>1.136321544647217</v>
+        <v>1.47260046005249</v>
       </c>
       <c r="E4" t="n">
-        <v>3.083052396774292</v>
+        <v>0.5425764322280884</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01230060461569882</v>
+        <v>-0.3139847218990326</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3993948210369431</v>
+        <v>0.365755558013916</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.9949190426956491</v>
+        <v>-0.0809396430850029</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.937846660614014</v>
+        <v>-1.84237813949585</v>
       </c>
       <c r="D5" t="n">
-        <v>1.245656490325928</v>
+        <v>1.411740303039551</v>
       </c>
       <c r="E5" t="n">
-        <v>3.884034872055054</v>
+        <v>1.237700462341309</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3243139045820992</v>
+        <v>-0.09199075129899148</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5972596244378523</v>
+        <v>0.302864204753529</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.587486072020097</v>
+        <v>-0.2070000191981139</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.061091899871826</v>
+        <v>-2.159674644470215</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4542388916015625</v>
+        <v>1.136321544647217</v>
       </c>
       <c r="E6" t="n">
-        <v>2.74072003364563</v>
+        <v>3.083052396774292</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9380390860817602</v>
+        <v>0.01230060461569882</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.513376929543232</v>
+        <v>-0.3993948210369431</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.357259793715038</v>
+        <v>-0.9949190426956491</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.979402542114258</v>
+        <v>-1.937846660614014</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1682605743408203</v>
+        <v>1.245656490325928</v>
       </c>
       <c r="E7" t="n">
-        <v>2.131577730178833</v>
+        <v>3.884034872055054</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2036124901338088</v>
+        <v>0.3243139045820992</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2562440525401761</v>
+        <v>-0.5972596244378523</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1245054331692872</v>
+        <v>-1.587486072020097</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.620201349258423</v>
+        <v>-3.061091899871826</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.011659622192383</v>
+        <v>0.4542388916015625</v>
       </c>
       <c r="E8" t="n">
-        <v>2.961694955825806</v>
+        <v>2.74072003364563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2954227382486529</v>
+        <v>-0.9380390860817602</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008163343776357967</v>
+        <v>-1.513376929543232</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4832359877499712</v>
+        <v>-3.357259793715038</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.750590324401856</v>
+        <v>-2.979402542114258</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.630428791046143</v>
+        <v>-0.1682605743408203</v>
       </c>
       <c r="E9" t="n">
-        <v>4.153227806091309</v>
+        <v>2.131577730178833</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3702815256335535</v>
+        <v>-0.2036124901338088</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.7731332995674872</v>
+        <v>-0.2562440525401761</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.987241875041621</v>
+        <v>-0.1245054331692872</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.631756782531738</v>
+        <v>-3.620201349258423</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1280508041381836</v>
+        <v>-1.011659622192383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0708565711975097</v>
+        <v>2.961694955825806</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1218537308953028</v>
+        <v>0.2954227382486529</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1149676279588187</v>
+        <v>0.008163343776357967</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5308419032530356</v>
+        <v>0.4832359877499712</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-6.701959609985352</v>
+        <v>-5.750590324401856</v>
       </c>
       <c r="D11" t="n">
-        <v>13.03308868408203</v>
+        <v>-1.630428791046143</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.955403804779053</v>
+        <v>4.153227806091309</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7092561884359876</v>
+        <v>-0.3702815256335535</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.314401550726458</v>
+        <v>-0.7731332995674872</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.9030254652554355</v>
+        <v>-1.987241875041621</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-9.679704666137695</v>
+        <v>-4.631756782531738</v>
       </c>
       <c r="D12" t="n">
-        <v>1.827943325042725</v>
+        <v>0.1280508041381836</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2789157629013061</v>
+        <v>0.0708565711975097</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9390387182885965</v>
+        <v>-0.1218537308953028</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6636356765573627</v>
+        <v>-0.1149676279588187</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2282692268490727</v>
+        <v>-0.5308419032530356</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.086193084716797</v>
+        <v>-6.701959609985352</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.266827583312988</v>
+        <v>13.03308868408203</v>
       </c>
       <c r="E13" t="n">
-        <v>2.888416528701782</v>
+        <v>-3.955403804779053</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3692680299282074</v>
+        <v>-0.7092561884359876</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.486374378204346</v>
+        <v>-1.314401550726458</v>
       </c>
       <c r="H13" t="n">
-        <v>2.66978645324707</v>
+        <v>-0.9030254652554355</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.258205413818359</v>
+        <v>-9.679704666137695</v>
       </c>
       <c r="D14" t="n">
-        <v>1.049188137054443</v>
+        <v>1.827943325042725</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.970268726348877</v>
+        <v>0.2789157629013061</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7195992388508516</v>
+        <v>-0.9390387182885965</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8889339186928424</v>
+        <v>-0.6636356765573627</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3780700483105441</v>
+        <v>0.2282692268490727</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-2.633459091186523</v>
+        <v>3.086193084716797</v>
       </c>
       <c r="D15" t="n">
-        <v>5.726268291473389</v>
+        <v>-2.266827583312988</v>
       </c>
       <c r="E15" t="n">
-        <v>6.590025901794434</v>
+        <v>2.888416528701782</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.744853258132938</v>
+        <v>-0.3692680299282074</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.628608725287703</v>
+        <v>-2.486374378204346</v>
       </c>
       <c r="H15" t="n">
-        <v>2.057380207560282</v>
+        <v>2.66978645324707</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.84531307220459</v>
+        <v>1.258205413818359</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.8891797065734863</v>
+        <v>1.049188137054443</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.761303424835205</v>
+        <v>-6.970268726348877</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.074428666721691</v>
+        <v>0.7195992388508516</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7690515951676815</v>
+        <v>0.8889339186928424</v>
       </c>
       <c r="H16" t="n">
-        <v>1.639270782470704</v>
+        <v>0.3780700483105441</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9592771530151368</v>
+        <v>-2.633459091186523</v>
       </c>
       <c r="D17" t="n">
-        <v>3.222768306732178</v>
+        <v>5.726268291473389</v>
       </c>
       <c r="E17" t="n">
-        <v>1.57231593132019</v>
+        <v>6.590025901794434</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2539533461359424</v>
+        <v>-1.744853258132938</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02276861396702762</v>
+        <v>-2.628608725287703</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6248873986981154</v>
+        <v>2.057380207560282</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.009872436523438</v>
+        <v>4.84531307220459</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1888983249664306</v>
+        <v>-0.8891797065734863</v>
       </c>
       <c r="E18" t="n">
-        <v>0.460105299949646</v>
+        <v>-5.761303424835205</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.05406157367608758</v>
+        <v>-1.074428666721691</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4298825345256099</v>
+        <v>-0.7690515951676815</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1093171049248081</v>
+        <v>1.639270782470704</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-3.207517623901367</v>
+        <v>0.9592771530151368</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4280340671539306</v>
+        <v>3.222768306732178</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7658971548080444</v>
+        <v>1.57231593132019</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0573519143191249</v>
+        <v>-0.2539533461359424</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5145012542012748</v>
+        <v>-0.02276861396702762</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1331963850693274</v>
+        <v>0.6248873986981154</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.737979888916016</v>
+        <v>1.009872436523438</v>
       </c>
       <c r="D20" t="n">
-        <v>5.444014549255371</v>
+        <v>-0.1888983249664306</v>
       </c>
       <c r="E20" t="n">
-        <v>1.090345621109009</v>
+        <v>0.460105299949646</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1042219359766348</v>
+        <v>-0.05406157367608758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04282998323271233</v>
+        <v>0.4298825345256099</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08976942436261562</v>
+        <v>-0.1093171049248081</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9887199401855468</v>
+        <v>-3.207517623901367</v>
       </c>
       <c r="D21" t="n">
-        <v>3.471959352493286</v>
+        <v>0.4280340671539306</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.082100629806519</v>
+        <v>0.7658971548080444</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.05878189815716307</v>
+        <v>0.0573519143191249</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06641771102493452</v>
+        <v>0.5145012542012748</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0004026171835987413</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.57354736328125</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.141260385513306</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.086636304855347</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.06514044986529789</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.007274850525639441</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1091644005341966</v>
+        <v>-0.1331963850693274</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-03-49/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-49/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.921436786651612</v>
+        <v>-1.610764980316162</v>
       </c>
       <c r="D2" t="n">
-        <v>1.638089656829834</v>
+        <v>1.577288150787354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3902863562107086</v>
+        <v>0.315173327922821</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1360424668951469</v>
+        <v>0.007011067026972018</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3186911859295585</v>
+        <v>-0.03245915641838846</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05561650341207323</v>
+        <v>0.03166781107641074</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.84520435333252</v>
+        <v>-1.949196338653564</v>
       </c>
       <c r="D3" t="n">
-        <v>1.668948650360107</v>
+        <v>1.61798095703125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1994338035583496</v>
+        <v>0.4421060681343078</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2708076590841467</v>
+        <v>-0.0004164990228177805</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3116106986999512</v>
+        <v>-0.01167585594918232</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008329986171288634</v>
+        <v>-0.0006108652715655517</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.829729080200196</v>
+        <v>-1.840867042541504</v>
       </c>
       <c r="D4" t="n">
-        <v>1.47260046005249</v>
+        <v>1.58759355545044</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5425764322280884</v>
+        <v>0.5192338824272156</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3139847218990326</v>
+        <v>-0.0122173046693205</v>
       </c>
       <c r="G4" t="n">
-        <v>0.365755558013916</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0809396430850029</v>
+        <v>0.0039706239476799</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.84237813949585</v>
+        <v>-1.788941383361816</v>
       </c>
       <c r="D5" t="n">
-        <v>1.411740303039551</v>
+        <v>1.582527160644531</v>
       </c>
       <c r="E5" t="n">
-        <v>1.237700462341309</v>
+        <v>0.4804926216602325</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09199075129899148</v>
+        <v>-0.04220523541285226</v>
       </c>
       <c r="G5" t="n">
-        <v>0.302864204753529</v>
+        <v>0.007899598006836298</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2070000191981139</v>
+        <v>0.001610462892461813</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.159674644470215</v>
+        <v>-1.827802658081055</v>
       </c>
       <c r="D6" t="n">
-        <v>1.136321544647217</v>
+        <v>1.591060638427734</v>
       </c>
       <c r="E6" t="n">
-        <v>3.083052396774292</v>
+        <v>0.4033206701278686</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01230060461569882</v>
+        <v>-0.01571589649062261</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3993948210369431</v>
+        <v>-0.009926560250195525</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.9949190426956491</v>
+        <v>0.002873843345283052</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.937846660614014</v>
+        <v>-1.872776985168457</v>
       </c>
       <c r="D7" t="n">
-        <v>1.245656490325928</v>
+        <v>1.712420463562011</v>
       </c>
       <c r="E7" t="n">
-        <v>3.884034872055054</v>
+        <v>0.4200127720832824</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3243139045820992</v>
+        <v>0.007719115523452058</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5972596244378523</v>
+        <v>-0.02122756669467137</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.587486072020097</v>
+        <v>0.02797485068863757</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.061091899871826</v>
+        <v>-1.756282329559326</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4542388916015625</v>
+        <v>1.523788452148438</v>
       </c>
       <c r="E8" t="n">
-        <v>2.74072003364563</v>
+        <v>0.3277221620082855</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9380390860817602</v>
+        <v>-0.01150925694541499</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.513376929543232</v>
+        <v>-0.008524346549000439</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.357259793715038</v>
+        <v>0.01102334066209471</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.979402542114258</v>
+        <v>-1.891244411468506</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1682605743408203</v>
+        <v>1.559478759765625</v>
       </c>
       <c r="E9" t="n">
-        <v>2.131577730178833</v>
+        <v>0.1866782307624817</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2036124901338088</v>
+        <v>-0.01870080676268442</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2562440525401761</v>
+        <v>-0.01660442801816813</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1245054331692872</v>
+        <v>-0.0122173046693205</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.620201349258423</v>
+        <v>-1.622483730316162</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.011659622192383</v>
+        <v>1.571603775024414</v>
       </c>
       <c r="E10" t="n">
-        <v>2.961694955825806</v>
+        <v>0.2709611356258392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2954227382486529</v>
+        <v>-0.01634064570746632</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008163343776357967</v>
+        <v>-0.02958531457592136</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4832359877499712</v>
+        <v>-0.03082092817534093</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-5.750590324401856</v>
+        <v>-1.867420673370361</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.630428791046143</v>
+        <v>1.565328121185303</v>
       </c>
       <c r="E11" t="n">
-        <v>4.153227806091309</v>
+        <v>0.3432579040527344</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3702815256335535</v>
+        <v>-0.01731247691945591</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.7731332995674872</v>
+        <v>-0.0009301814504645012</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.987241875041621</v>
+        <v>-0.02040845257314771</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-4.631756782531738</v>
+        <v>-1.858330726623535</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1280508041381836</v>
+        <v>1.508580207824707</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0708565711975097</v>
+        <v>0.2882210314273834</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1218537308953028</v>
+        <v>-0.03719336404041793</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1149676279588187</v>
+        <v>0.1217704361135306</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5308419032530356</v>
+        <v>0.03431951999664297</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-6.701959609985352</v>
+        <v>-1.921436786651612</v>
       </c>
       <c r="D13" t="n">
-        <v>13.03308868408203</v>
+        <v>1.638089656829834</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.955403804779053</v>
+        <v>0.3902863562107086</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7092561884359876</v>
+        <v>-0.1360424668951469</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.314401550726458</v>
+        <v>0.3186911859295585</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.9030254652554355</v>
+        <v>0.05561650341207323</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-9.679704666137695</v>
+        <v>-1.84520435333252</v>
       </c>
       <c r="D14" t="n">
-        <v>1.827943325042725</v>
+        <v>1.668948650360107</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2789157629013061</v>
+        <v>0.1994338035583496</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9390387182885965</v>
+        <v>-0.2708076590841467</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6636356765573627</v>
+        <v>0.3116106986999512</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2282692268490727</v>
+        <v>0.0008329986171288634</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.086193084716797</v>
+        <v>-1.829729080200196</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.266827583312988</v>
+        <v>1.47260046005249</v>
       </c>
       <c r="E15" t="n">
-        <v>2.888416528701782</v>
+        <v>0.5425764322280884</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3692680299282074</v>
+        <v>-0.3139847218990326</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.486374378204346</v>
+        <v>0.365755558013916</v>
       </c>
       <c r="H15" t="n">
-        <v>2.66978645324707</v>
+        <v>-0.0809396430850029</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.258205413818359</v>
+        <v>-1.84237813949585</v>
       </c>
       <c r="D16" t="n">
-        <v>1.049188137054443</v>
+        <v>1.411740303039551</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.970268726348877</v>
+        <v>1.237700462341309</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7195992388508516</v>
+        <v>-0.09199075129899148</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8889339186928424</v>
+        <v>0.302864204753529</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3780700483105441</v>
+        <v>-0.2070000191981139</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.633459091186523</v>
+        <v>-2.159674644470215</v>
       </c>
       <c r="D17" t="n">
-        <v>5.726268291473389</v>
+        <v>1.136321544647217</v>
       </c>
       <c r="E17" t="n">
-        <v>6.590025901794434</v>
+        <v>3.083052396774292</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.744853258132938</v>
+        <v>0.01230060461569882</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.628608725287703</v>
+        <v>-0.3993948210369431</v>
       </c>
       <c r="H17" t="n">
-        <v>2.057380207560282</v>
+        <v>-0.9949190426956491</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.84531307220459</v>
+        <v>-1.937846660614014</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.8891797065734863</v>
+        <v>1.245656490325928</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.761303424835205</v>
+        <v>3.884034872055054</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.074428666721691</v>
+        <v>0.3243139045820992</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7690515951676815</v>
+        <v>-0.5972596244378523</v>
       </c>
       <c r="H18" t="n">
-        <v>1.639270782470704</v>
+        <v>-1.587486072020097</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9592771530151368</v>
+        <v>-3.061091899871826</v>
       </c>
       <c r="D19" t="n">
-        <v>3.222768306732178</v>
+        <v>0.4542388916015625</v>
       </c>
       <c r="E19" t="n">
-        <v>1.57231593132019</v>
+        <v>2.74072003364563</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2539533461359424</v>
+        <v>-0.9380390860817602</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02276861396702762</v>
+        <v>-1.513376929543232</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6248873986981154</v>
+        <v>-3.357259793715038</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.009872436523438</v>
+        <v>-2.979402542114258</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1888983249664306</v>
+        <v>-0.1682605743408203</v>
       </c>
       <c r="E20" t="n">
-        <v>0.460105299949646</v>
+        <v>2.131577730178833</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.05406157367608758</v>
+        <v>-0.2036124901338088</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4298825345256099</v>
+        <v>-0.2562440525401761</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1093171049248081</v>
+        <v>-0.1245054331692872</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3.207517623901367</v>
+        <v>-3.620201349258423</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4280340671539306</v>
+        <v>-1.011659622192383</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7658971548080444</v>
+        <v>2.961694955825806</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0573519143191249</v>
+        <v>0.2954227382486529</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5145012542012748</v>
+        <v>0.008163343776357967</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1331963850693274</v>
+        <v>0.4832359877499712</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.750590324401856</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.630428791046143</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.153227806091309</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.3702815256335535</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.7731332995674872</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.987241875041621</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.631756782531738</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1280508041381836</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0708565711975097</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1218537308953028</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1149676279588187</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.5308419032530356</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.701959609985352</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13.03308868408203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-3.955403804779053</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.7092561884359876</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.314401550726458</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.9030254652554355</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-9.679704666137695</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.827943325042725</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2789157629013061</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.9390387182885965</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.6636356765573627</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.2282692268490727</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.086193084716797</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.266827583312988</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.888416528701782</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.3692680299282074</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2.486374378204346</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.66978645324707</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.258205413818359</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.049188137054443</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-6.970268726348877</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7195992388508516</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8889339186928424</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.3780700483105441</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.633459091186523</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.726268291473389</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.590025901794434</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.744853258132938</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-2.628608725287703</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.057380207560282</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4.84531307220459</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.8891797065734863</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-5.761303424835205</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.074428666721691</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.7690515951676815</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.639270782470704</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9592771530151368</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.222768306732178</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.57231593132019</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.2539533461359424</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.02276861396702762</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6248873986981154</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.009872436523438</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.1888983249664306</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.460105299949646</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.05406157367608758</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.4298825345256099</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.1093171049248081</v>
       </c>
     </row>
   </sheetData>
